--- a/3DBeam/output/220901_Berechnungs_Ergebnisse_Knicke.xlsx
+++ b/3DBeam/output/220901_Berechnungs_Ergebnisse_Knicke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Projekte\Projekte 2022\(E) Entwicklung\22-E-001 - Studie Windraeder\CoupledBeams\3DBeam\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7750F3-EA77-4D5C-B7B7-388C7AB1EA12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE39D65-CBA8-4702-8CDA-2AE3F21F09C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QS_Werte" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>fmk</t>
   </si>
@@ -110,12 +110,18 @@
   <si>
     <t>110 m</t>
   </si>
+  <si>
+    <t>P_erf  [MN]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +133,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -142,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -189,11 +203,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -205,6 +289,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5423,16 +5527,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>900112</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5541,15 +5645,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>631173</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:colOff>956144</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>132230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>65275</xdr:rowOff>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98893</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5867,7 +5971,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A12" sqref="A12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6470,13 +6574,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="18" customWidth="1"/>
+    <col min="1" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -6535,27 +6644,30 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="9">
         <v>110</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="14">
+        <v>110</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -6575,13 +6687,13 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
+      <c r="L7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -6627,7 +6739,7 @@
         <v>24</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>26</v>
@@ -6667,19 +6779,19 @@
       <c r="K10">
         <v>0.4</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="8">
         <v>3.8459377544311319</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="8">
         <v>-9.0424523103813144</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="8">
         <v>60.779153019205083</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="7">
         <v>0.57999999999999996</v>
       </c>
     </row>
@@ -6717,19 +6829,19 @@
       <c r="K11">
         <v>0.44800000000000001</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="8">
         <v>13.75</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="8">
         <v>3.963944035176314</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="8">
         <v>-9.2260992970370328</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="8">
         <v>57.662822479483133</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="7">
         <v>0.59099999999999997</v>
       </c>
     </row>
@@ -6767,19 +6879,19 @@
       <c r="K12">
         <v>0.51400000000000001</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="8">
         <v>27.5</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="8">
         <v>4.0685476644473582</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="8">
         <v>-9.3892208929488508</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="8">
         <v>54.071785975696073</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="7">
         <v>0.60199999999999998</v>
       </c>
     </row>
@@ -6817,19 +6929,19 @@
       <c r="K13">
         <v>0.60899999999999999</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="8">
         <v>41.25</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="8">
         <v>4.1475991385945372</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="8">
         <v>-9.5096113948854413</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="8">
         <v>49.910368574915871</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="7">
         <v>0.60899999999999999</v>
       </c>
     </row>
@@ -6867,19 +6979,19 @@
       <c r="K14">
         <v>0.75800000000000001</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="8">
         <v>55</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="8">
         <v>5.2568359897220391</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="8">
         <v>-11.843216820887349</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="8">
         <v>51.367750020150233</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="7">
         <v>0.75800000000000001</v>
       </c>
     </row>
@@ -6917,19 +7029,19 @@
       <c r="K15">
         <v>0.71299999999999997</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="8">
         <v>68.75</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="8">
         <v>4.9172524456846194</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="8">
         <v>-11.147875873927751</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="8">
         <v>43.229694839131142</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="7">
         <v>0.71299999999999997</v>
       </c>
     </row>
@@ -6967,19 +7079,19 @@
       <c r="K16">
         <v>0.625</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="8">
         <v>82.5</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="8">
         <v>4.232032361938999</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="8">
         <v>-9.7799573071396839</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="8">
         <v>33.057488068873447</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="7">
         <v>0.625</v>
       </c>
     </row>
@@ -7017,19 +7129,19 @@
       <c r="K17">
         <v>0.45400000000000001</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="8">
         <v>96.25</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="8">
         <v>2.8766257943088429</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="8">
         <v>-7.0993627497498588</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="8">
         <v>19.650458244119939</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="7">
         <v>0.45400000000000001</v>
       </c>
     </row>
@@ -7067,28 +7179,28 @@
       <c r="K18">
         <v>0.106</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="8">
         <v>110</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="8">
         <v>0.1218809866163672</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="8">
         <v>-1.663673720425134</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="8">
         <v>0.71311372761843372</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="7">
         <v>0.106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B6:P6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="L7:P7"/>
+    <mergeCell ref="L6:P6"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F18">
     <cfRule type="dataBar" priority="1">
@@ -7108,7 +7220,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P18">
+  <conditionalFormatting sqref="P7:P18 P5">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7118,7 +7230,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7126,7 +7239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
